--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value164.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value164.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.528651554095575</v>
+        <v>1.315346002578735</v>
       </c>
       <c r="B1">
-        <v>1.871551908499681</v>
+        <v>4.618990898132324</v>
       </c>
       <c r="C1">
-        <v>1.851473491303271</v>
+        <v>3.238940477371216</v>
       </c>
       <c r="D1">
-        <v>2.283101454487748</v>
+        <v>2.473646640777588</v>
       </c>
       <c r="E1">
-        <v>1.473466511419874</v>
+        <v>2.233258962631226</v>
       </c>
     </row>
   </sheetData>
